--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Month9of204045VariablePayAnd50regulatoryLimit.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Month9of204045VariablePayAnd50regulatoryLimit.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="14340" windowHeight="4152" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14340" windowHeight="4155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -145,9 +150,6 @@
     <t>DO NOT TOUCH - TAX PAYROLL AUTOMATION</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Updated Income tax calculation script creation scenarios.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -167,12 +169,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\Updated Income tax calculation script creation scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,6 +314,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -356,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,9 +397,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,6 +449,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,15 +648,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -642,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -656,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -684,16 +726,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -719,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -740,7 +782,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -761,7 +803,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -782,7 +824,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -803,7 +845,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -838,23 +880,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -895,7 +937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
@@ -903,34 +945,34 @@
         <v>9</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="12" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -938,28 +980,28 @@
         <v>10</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>4</v>
@@ -967,7 +1009,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="12" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>40</v>
       </c>
@@ -975,28 +1017,28 @@
         <v>11</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>4</v>
@@ -1004,7 +1046,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -1012,28 +1054,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>4</v>
@@ -1041,7 +1083,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
@@ -1049,28 +1091,28 @@
         <v>13</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>4</v>
@@ -1087,24 +1129,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1145,7 +1187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
@@ -1153,28 +1195,28 @@
         <v>9</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>4</v>
